--- a/biology/Zoologie/Celmia_mecrida/Celmia_mecrida.xlsx
+++ b/biology/Zoologie/Celmia_mecrida/Celmia_mecrida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celmia mecrida est un papillon de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Celmia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celmia mecrida a été décrit par William Chapman Hewitson en 1867 sous le nom initial de Thecla mecrida[1].
-Nom vernaculaire
-Celmia mecrida se nomme Mecrida Hairstreak en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celmia mecrida a été décrit par William Chapman Hewitson en 1867 sous le nom initial de Thecla mecrida.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celmia mecrida se nomme Mecrida Hairstreak en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Celmia_mecrida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celmia_mecrida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Celmia mecrida est un petit papillon aux pattes et aux antennes cerclés de blanc et noir, avec deux queues fines, une longue et une courte à chaque aile postérieure.
 Sur le dessus les ailes sont grises avec aux ailes antérieures une plage bleu métallisé le long du bord interne alors que les ailes postérieures sont bleu métallisé largement bordées de gris.
@@ -553,32 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Celmia_mecrida</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Celmia_mecrida</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -600,17 +625,81 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Celmia_mecrida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celmia_mecrida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celmia mecrida est présent au Brésil, en Guyana et en Guyane[1],[3],[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celmia mecrida est présent au Brésil, en Guyana et en Guyane.
 Sur les autres projets Wikimedia :
 Celmia mecrida, sur Wikimedia CommonsCelmia mecrida, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Celmia_mecrida</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celmia_mecrida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
